--- a/논문/새 Microsoft Excel 워크시트.xlsx
+++ b/논문/새 Microsoft Excel 워크시트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portfolio\논문\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2643C1EE-7241-4AB2-B4FC-7C3FA9794E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E566ABD-1F80-4AF4-B0DB-EDB16D6BFE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10160" yWindow="-19220" windowWidth="35500" windowHeight="18250" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6290" yWindow="-19520" windowWidth="28450" windowHeight="15290" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="310">
   <si>
     <t>4 0.602740 0.455446 0.365297 0.455446</t>
   </si>
@@ -1545,10 +1545,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,7 +1557,10 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1569,9 +1572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3280,28 +3280,28 @@
       <c r="G1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="U1" s="63" t="s">
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="U1" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
     </row>
     <row r="2" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
@@ -3316,28 +3316,28 @@
       <c r="G2" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="U2" s="64" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="U2" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
@@ -3780,25 +3780,25 @@
       <c r="G9" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
       <c r="AD9" s="47"/>
     </row>
     <row r="10" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
@@ -3816,29 +3816,29 @@
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="66" t="s">
+      <c r="U10" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
       <c r="AD10" s="47"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.6">
@@ -4329,28 +4329,28 @@
         <f>COUNTIF(G:G,5)</f>
         <v>44</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="K17" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="U17" s="65" t="s">
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="U17" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
@@ -4797,15 +4797,15 @@
       <c r="G24" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
@@ -4831,29 +4831,29 @@
       <c r="G26" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="67" t="s">
+      <c r="K26" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
       <c r="T26" s="41"/>
-      <c r="U26" s="67" t="s">
+      <c r="U26" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="67"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
       <c r="AD26" s="48"/>
     </row>
     <row r="27" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -4863,29 +4863,29 @@
       <c r="G27" t="s">
         <v>165</v>
       </c>
-      <c r="K27" s="65" t="s">
+      <c r="K27" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
       <c r="T27" s="41"/>
-      <c r="U27" s="65" t="s">
+      <c r="U27" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="67"/>
       <c r="AD27" s="48"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.6">
@@ -5326,24 +5326,24 @@
       <c r="G34" t="s">
         <v>167</v>
       </c>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="65"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
     </row>
     <row r="35" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" t="s">
@@ -5358,28 +5358,28 @@
       <c r="G35" t="s">
         <v>167</v>
       </c>
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="U35" s="65" t="s">
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="U35" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="65"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="67"/>
     </row>
     <row r="36" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
@@ -5816,28 +5816,28 @@
       <c r="G42" t="s">
         <v>167</v>
       </c>
-      <c r="K42" s="65" t="s">
+      <c r="K42" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="65"/>
-      <c r="U42" s="65" t="s">
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+      <c r="U42" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="V42" s="65"/>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="65"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="67"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="67"/>
+      <c r="AC42" s="67"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
@@ -6304,28 +6304,28 @@
       <c r="G51" t="s">
         <v>170</v>
       </c>
-      <c r="K51" s="67" t="s">
+      <c r="K51" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
-      <c r="U51" s="67" t="s">
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
+      <c r="U51" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
-      <c r="X51" s="67"/>
-      <c r="Y51" s="67"/>
-      <c r="Z51" s="67"/>
-      <c r="AA51" s="67"/>
-      <c r="AB51" s="67"/>
-      <c r="AC51" s="67"/>
+      <c r="V51" s="66"/>
+      <c r="W51" s="66"/>
+      <c r="X51" s="66"/>
+      <c r="Y51" s="66"/>
+      <c r="Z51" s="66"/>
+      <c r="AA51" s="66"/>
+      <c r="AB51" s="66"/>
+      <c r="AC51" s="66"/>
     </row>
     <row r="52" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A52" t="s">
@@ -6340,28 +6340,28 @@
       <c r="G52" t="s">
         <v>170</v>
       </c>
-      <c r="K52" s="65" t="s">
+      <c r="K52" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="65"/>
-      <c r="U52" s="65" t="s">
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="67"/>
+      <c r="S52" s="67"/>
+      <c r="U52" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="V52" s="65"/>
-      <c r="W52" s="65"/>
-      <c r="X52" s="65"/>
-      <c r="Y52" s="65"/>
-      <c r="Z52" s="65"/>
-      <c r="AA52" s="65"/>
-      <c r="AB52" s="65"/>
-      <c r="AC52" s="65"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
+      <c r="X52" s="67"/>
+      <c r="Y52" s="67"/>
+      <c r="Z52" s="67"/>
+      <c r="AA52" s="67"/>
+      <c r="AB52" s="67"/>
+      <c r="AC52" s="67"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
@@ -6784,25 +6784,25 @@
       <c r="G59" t="s">
         <v>165</v>
       </c>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="65"/>
-      <c r="S59" s="65"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
       <c r="T59" s="41"/>
-      <c r="U59" s="65"/>
-      <c r="V59" s="65"/>
-      <c r="W59" s="65"/>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="65"/>
-      <c r="Z59" s="65"/>
-      <c r="AA59" s="65"/>
-      <c r="AB59" s="65"/>
-      <c r="AC59" s="65"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
       <c r="AD59" s="49"/>
     </row>
     <row r="60" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -6818,29 +6818,29 @@
       <c r="G60" t="s">
         <v>165</v>
       </c>
-      <c r="K60" s="65" t="s">
+      <c r="K60" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="65"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="65"/>
-      <c r="S60" s="65"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
       <c r="T60" s="41"/>
-      <c r="U60" s="65" t="s">
+      <c r="U60" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="V60" s="65"/>
-      <c r="W60" s="65"/>
-      <c r="X60" s="65"/>
-      <c r="Y60" s="65"/>
-      <c r="Z60" s="65"/>
-      <c r="AA60" s="65"/>
-      <c r="AB60" s="65"/>
-      <c r="AC60" s="65"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="67"/>
+      <c r="AC60" s="67"/>
       <c r="AD60" s="48"/>
     </row>
     <row r="61" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
@@ -7260,29 +7260,29 @@
       <c r="G67" t="s">
         <v>170</v>
       </c>
-      <c r="K67" s="65" t="s">
+      <c r="K67" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="65"/>
-      <c r="R67" s="65"/>
-      <c r="S67" s="65"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="67"/>
+      <c r="Q67" s="67"/>
+      <c r="R67" s="67"/>
+      <c r="S67" s="67"/>
       <c r="T67" s="41"/>
-      <c r="U67" s="65" t="s">
+      <c r="U67" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="V67" s="65"/>
-      <c r="W67" s="65"/>
-      <c r="X67" s="65"/>
-      <c r="Y67" s="65"/>
-      <c r="Z67" s="65"/>
-      <c r="AA67" s="65"/>
-      <c r="AB67" s="65"/>
-      <c r="AC67" s="65"/>
+      <c r="V67" s="67"/>
+      <c r="W67" s="67"/>
+      <c r="X67" s="67"/>
+      <c r="Y67" s="67"/>
+      <c r="Z67" s="67"/>
+      <c r="AA67" s="67"/>
+      <c r="AB67" s="67"/>
+      <c r="AC67" s="67"/>
       <c r="AD67" s="50"/>
     </row>
     <row r="68" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.6">
@@ -9425,29 +9425,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="U51:AC51"/>
-    <mergeCell ref="U52:AC52"/>
-    <mergeCell ref="U59:AC59"/>
-    <mergeCell ref="U60:AC60"/>
-    <mergeCell ref="U67:AC67"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K52:S52"/>
-    <mergeCell ref="K59:S59"/>
-    <mergeCell ref="K60:S60"/>
-    <mergeCell ref="K67:S67"/>
-    <mergeCell ref="K42:S42"/>
-    <mergeCell ref="U26:AC26"/>
-    <mergeCell ref="U27:AC27"/>
-    <mergeCell ref="U34:AC34"/>
-    <mergeCell ref="U35:AC35"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="K27:S27"/>
-    <mergeCell ref="K34:S34"/>
-    <mergeCell ref="K35:S35"/>
-    <mergeCell ref="K24:S24"/>
-    <mergeCell ref="K17:S17"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="U1:AC1"/>
     <mergeCell ref="U2:AC2"/>
@@ -9456,6 +9433,29 @@
     <mergeCell ref="K9:S9"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="K10:S10"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="K27:S27"/>
+    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="K35:S35"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="K17:S17"/>
+    <mergeCell ref="K42:S42"/>
+    <mergeCell ref="U26:AC26"/>
+    <mergeCell ref="U27:AC27"/>
+    <mergeCell ref="U34:AC34"/>
+    <mergeCell ref="U35:AC35"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K52:S52"/>
+    <mergeCell ref="K59:S59"/>
+    <mergeCell ref="K60:S60"/>
+    <mergeCell ref="K67:S67"/>
+    <mergeCell ref="U51:AC51"/>
+    <mergeCell ref="U52:AC52"/>
+    <mergeCell ref="U59:AC59"/>
+    <mergeCell ref="U60:AC60"/>
+    <mergeCell ref="U67:AC67"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13531,8 +13531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37C049D-D7B6-433B-9FDE-E9B6A2B6BB57}">
   <dimension ref="B2:AN120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -20220,7 +20220,7 @@
       <c r="C70" t="s">
         <v>301</v>
       </c>
-      <c r="D70" s="68"/>
+      <c r="D70" s="71"/>
       <c r="E70" s="55">
         <v>62</v>
       </c>
@@ -20292,7 +20292,7 @@
       <c r="C71" t="s">
         <v>302</v>
       </c>
-      <c r="D71" s="69"/>
+      <c r="D71" s="72"/>
       <c r="E71" s="55">
         <v>69</v>
       </c>
@@ -20359,7 +20359,7 @@
       <c r="C72" t="s">
         <v>303</v>
       </c>
-      <c r="D72" s="70"/>
+      <c r="D72" s="73"/>
       <c r="E72" s="58">
         <v>64</v>
       </c>
@@ -20437,6 +20437,16 @@
       <c r="E74" s="59" t="s">
         <v>309</v>
       </c>
+      <c r="H74" s="55"/>
+      <c r="I74" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="J74" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="K74" s="59" t="s">
+        <v>309</v>
+      </c>
       <c r="AF74" s="26"/>
       <c r="AG74" s="20">
         <v>0</v>
@@ -20477,6 +20487,21 @@
       <c r="F75">
         <v>63</v>
       </c>
+      <c r="H75" s="55">
+        <v>1</v>
+      </c>
+      <c r="I75" s="55">
+        <v>0</v>
+      </c>
+      <c r="J75" s="55">
+        <v>0</v>
+      </c>
+      <c r="K75" s="55">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>63</v>
+      </c>
       <c r="AF75" s="27" t="s">
         <v>23</v>
       </c>
@@ -20507,19 +20532,34 @@
       </c>
     </row>
     <row r="76" spans="2:40" x14ac:dyDescent="0.6">
-      <c r="B76" s="71">
+      <c r="B76" s="63">
         <v>2</v>
       </c>
-      <c r="C76" s="71">
+      <c r="C76" s="63">
         <v>0.2</v>
       </c>
-      <c r="D76" s="71">
+      <c r="D76" s="63">
         <v>0.5</v>
       </c>
-      <c r="E76" s="71">
+      <c r="E76" s="63">
         <v>0.2</v>
       </c>
-      <c r="F76" s="72">
+      <c r="F76" s="64">
+        <v>59</v>
+      </c>
+      <c r="H76" s="63">
+        <v>2</v>
+      </c>
+      <c r="I76" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="J76" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="K76" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="L76" s="64">
         <v>59</v>
       </c>
       <c r="AF76" s="27" t="s">
@@ -20567,6 +20607,21 @@
       <c r="F77">
         <v>66</v>
       </c>
+      <c r="H77" s="55">
+        <v>3</v>
+      </c>
+      <c r="I77" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="J77" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="K77" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="L77">
+        <v>66</v>
+      </c>
       <c r="AF77" s="26" t="s">
         <v>279</v>
       </c>
@@ -20617,6 +20672,21 @@
         <v>0.2</v>
       </c>
       <c r="F78">
+        <v>61</v>
+      </c>
+      <c r="H78" s="55">
+        <v>4</v>
+      </c>
+      <c r="I78" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="J78" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="K78" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="L78">
         <v>61</v>
       </c>
       <c r="AF78" s="29"/>
@@ -20651,19 +20721,34 @@
       <c r="AN78" s="36"/>
     </row>
     <row r="79" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B79" s="73">
+      <c r="B79" s="65">
         <v>5</v>
       </c>
-      <c r="C79" s="73">
+      <c r="C79" s="65">
         <v>0.9</v>
       </c>
-      <c r="D79" s="73">
+      <c r="D79" s="65">
         <v>0.5</v>
       </c>
-      <c r="E79" s="73">
+      <c r="E79" s="65">
         <v>0.2</v>
       </c>
       <c r="F79">
+        <v>64</v>
+      </c>
+      <c r="H79" s="65">
+        <v>5</v>
+      </c>
+      <c r="I79" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="J79" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="K79" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="L79">
         <v>64</v>
       </c>
       <c r="AE79">
@@ -20695,6 +20780,21 @@
       <c r="F80">
         <v>70</v>
       </c>
+      <c r="H80" s="55">
+        <v>6</v>
+      </c>
+      <c r="I80" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="J80" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="K80" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="L80">
+        <v>70</v>
+      </c>
       <c r="AF80" s="24"/>
       <c r="AG80" s="25" t="s">
         <v>272</v>
@@ -20735,6 +20835,21 @@
       <c r="F81">
         <v>73</v>
       </c>
+      <c r="H81" s="55">
+        <v>7</v>
+      </c>
+      <c r="I81" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="J81" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="K81" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="L81">
+        <v>73</v>
+      </c>
       <c r="AF81" s="26"/>
       <c r="AG81" s="20">
         <v>0</v>
@@ -20775,6 +20890,21 @@
       <c r="F82">
         <v>65</v>
       </c>
+      <c r="H82" s="55">
+        <v>8</v>
+      </c>
+      <c r="I82" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="J82" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="K82" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="L82">
+        <v>65</v>
+      </c>
       <c r="AF82" s="27" t="s">
         <v>23</v>
       </c>
@@ -20820,6 +20950,21 @@
       <c r="F83">
         <v>110</v>
       </c>
+      <c r="H83" s="55">
+        <v>9</v>
+      </c>
+      <c r="I83" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="J83" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="K83" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="L83">
+        <v>110</v>
+      </c>
       <c r="AF83" s="27" t="s">
         <v>299</v>
       </c>
@@ -20865,6 +21010,21 @@
       <c r="F84">
         <v>65</v>
       </c>
+      <c r="H84" s="55">
+        <v>10</v>
+      </c>
+      <c r="I84" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="J84" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="K84" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="L84">
+        <v>65</v>
+      </c>
       <c r="AF84" s="26" t="s">
         <v>279</v>
       </c>
@@ -20915,6 +21075,21 @@
         <v>0.2</v>
       </c>
       <c r="F85">
+        <v>63</v>
+      </c>
+      <c r="H85" s="55">
+        <v>11</v>
+      </c>
+      <c r="I85" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="J85" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="K85" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="L85">
         <v>63</v>
       </c>
       <c r="AF85" s="29"/>
@@ -20964,6 +21139,21 @@
       <c r="F86">
         <v>88</v>
       </c>
+      <c r="H86" s="55">
+        <v>12</v>
+      </c>
+      <c r="I86" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="J86" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="K86" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="L86">
+        <v>88</v>
+      </c>
       <c r="AE86">
         <v>13</v>
       </c>
@@ -20993,6 +21183,21 @@
       <c r="F87">
         <v>63</v>
       </c>
+      <c r="H87" s="55">
+        <v>13</v>
+      </c>
+      <c r="I87" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="J87" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="K87" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="L87">
+        <v>63</v>
+      </c>
       <c r="AF87" s="24"/>
       <c r="AG87" s="25" t="s">
         <v>272</v>
@@ -21033,6 +21238,21 @@
       <c r="F88">
         <v>74</v>
       </c>
+      <c r="H88" s="55">
+        <v>14</v>
+      </c>
+      <c r="I88" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="J88" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="K88" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="L88">
+        <v>74</v>
+      </c>
       <c r="AF88" s="26"/>
       <c r="AG88" s="20">
         <v>0</v>
@@ -21073,6 +21293,21 @@
       <c r="F89">
         <v>69</v>
       </c>
+      <c r="H89" s="55">
+        <v>15</v>
+      </c>
+      <c r="I89" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="J89" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="K89" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="L89">
+        <v>69</v>
+      </c>
       <c r="AF89" s="27" t="s">
         <v>23</v>
       </c>
@@ -21118,6 +21353,21 @@
       <c r="F90">
         <v>70</v>
       </c>
+      <c r="H90" s="55">
+        <v>16</v>
+      </c>
+      <c r="I90" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="J90" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="K90" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="L90">
+        <v>70</v>
+      </c>
       <c r="AF90" s="27" t="s">
         <v>299</v>
       </c>
@@ -21161,6 +21411,21 @@
         <v>0.5</v>
       </c>
       <c r="F91">
+        <v>60</v>
+      </c>
+      <c r="H91" s="55">
+        <v>17</v>
+      </c>
+      <c r="I91" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="J91" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="K91" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="L91">
         <v>60</v>
       </c>
       <c r="AF91" s="26" t="s">
